--- a/Credit Card Fraud Analysis/Results.xlsx
+++ b/Credit Card Fraud Analysis/Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RAC_PERSONAL\RAC_IMARTICUS\Python\Classification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RAC_PERSONAL\RAC_IMARTICUS\GitHub\Python\Credit Card Fraud Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{187864EA-4BDC-4A09-AAD6-EDFB061AA55D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F71CA94-9F7D-4AAB-B5FD-9C4C784F5905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C09F09D7-8E2B-4584-800E-6EE6271FDDFE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Fraud</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>No Fraud</t>
+  </si>
+  <si>
+    <t>SVM</t>
   </si>
 </sst>
 </file>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -133,10 +136,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -453,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5BB129-313D-4E22-AC95-FD698C368F0E}">
-  <dimension ref="A2:K9"/>
+  <dimension ref="A2:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -473,51 +485,51 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -530,7 +542,7 @@
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
@@ -719,17 +731,43 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7">
+        <v>99.89</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B10:F10"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Credit Card Fraud Analysis/Results.xlsx
+++ b/Credit Card Fraud Analysis/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RAC_PERSONAL\RAC_IMARTICUS\GitHub\Python\Credit Card Fraud Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RAC_PERSONAL\RAC_IMARTICUS\Python\Classification\Credit Card Fraud Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F71CA94-9F7D-4AAB-B5FD-9C4C784F5905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95E7A1A-6D1C-42B3-B86D-500A8808B62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C09F09D7-8E2B-4584-800E-6EE6271FDDFE}"/>
+    <workbookView xWindow="5760" yWindow="3996" windowWidth="17280" windowHeight="8964" xr2:uid="{C09F09D7-8E2B-4584-800E-6EE6271FDDFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Fraud</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>SVM</t>
+  </si>
+  <si>
+    <t>Naive Bayes</t>
   </si>
 </sst>
 </file>
@@ -136,20 +139,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5BB129-313D-4E22-AC95-FD698C368F0E}">
-  <dimension ref="A2:K10"/>
+  <dimension ref="A2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -485,51 +488,51 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -542,7 +545,7 @@
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
@@ -732,15 +735,15 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4">
         <v>99.89</v>
       </c>
       <c r="H10" s="1">
@@ -756,8 +759,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4">
+        <v>91.94</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A3:A4"/>
